--- a/regions/7/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/7/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C4A18-BB26-464B-8608-216AB2445503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="10">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
   <si>
     <t>საწარმოთა ბრუნვა რაჭა-ლეჩხუმი ქვემო სავნეთის რეგიონში, საკუთრების ფორმების მიხედვით, მლნ. ლარი</t>
   </si>
@@ -47,11 +45,14 @@
   <si>
     <t>…</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#.0;\-#.0;\-"/>
@@ -218,7 +219,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,10 +554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -533,12 +570,12 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -588,10 +625,16 @@
       <c r="P5" s="4">
         <v>2020</v>
       </c>
+      <c r="Q5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="13">
         <v>22.2</v>
@@ -638,10 +681,16 @@
       <c r="P6" s="14">
         <v>117.1</v>
       </c>
+      <c r="Q6" s="14">
+        <v>126.1964659900394</v>
+      </c>
+      <c r="R6" s="14">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="15">
         <v>15.8</v>
@@ -688,105 +737,123 @@
       <c r="P7" s="15">
         <v>113.3</v>
       </c>
+      <c r="Q7" s="15">
+        <v>122.82822974131452</v>
+      </c>
+      <c r="R7" s="15">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="15">
+        <v>14.8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -798,7 +865,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -851,11 +918,16 @@
       <c r="P13" s="4">
         <v>2020</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="13">
         <v>20.5</v>
@@ -902,11 +974,16 @@
       <c r="P14" s="14">
         <v>98.4</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="14">
+        <v>100.31595004800003</v>
+      </c>
+      <c r="R14" s="14">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="15">
         <v>10.5</v>
@@ -953,112 +1030,125 @@
       <c r="P15" s="15">
         <v>92.7</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="15">
+        <v>96.632246903000052</v>
+      </c>
+      <c r="R15" s="15">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="15">
+        <v>14.8</v>
+      </c>
       <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1</v>
+      </c>
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -1066,7 +1156,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -1116,10 +1206,16 @@
       <c r="P21" s="4">
         <v>2020</v>
       </c>
+      <c r="Q21" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="17">
         <v>3303</v>
@@ -1166,8 +1262,12 @@
       <c r="P22" s="18">
         <v>2107.1</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="Q22" s="18">
+        <v>2330.3270833300003</v>
+      </c>
+      <c r="R22" s="18">
+        <v>2599</v>
+      </c>
       <c r="S22" s="11"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -1175,7 +1275,7 @@
     </row>
     <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="19">
         <v>2320</v>
@@ -1222,8 +1322,12 @@
       <c r="P23" s="19">
         <v>1923.1</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="Q23" s="19">
+        <v>2211.6843814120002</v>
+      </c>
+      <c r="R23" s="19">
+        <v>2315</v>
+      </c>
       <c r="S23" s="11"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
@@ -1231,55 +1335,59 @@
     </row>
     <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="15">
+        <v>189</v>
+      </c>
       <c r="S24" s="11"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
@@ -1287,57 +1395,63 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="15">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -1387,10 +1501,16 @@
       <c r="P30" s="4">
         <v>2020</v>
       </c>
+      <c r="Q30" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="13">
         <v>165.4</v>
@@ -1437,10 +1557,16 @@
       <c r="P31" s="14">
         <v>738.8</v>
       </c>
+      <c r="Q31" s="14">
+        <v>726.8</v>
+      </c>
+      <c r="R31" s="14">
+        <v>977.5</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="15">
         <v>155</v>
@@ -1487,105 +1613,123 @@
       <c r="P32" s="15">
         <v>732.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q32" s="15">
+        <v>695.8</v>
+      </c>
+      <c r="R32" s="15">
+        <v>838.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="15">
+        <v>2468.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="B34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="15">
+        <v>485.3</v>
       </c>
     </row>
   </sheetData>
